--- a/data2/mean_var10.xlsx
+++ b/data2/mean_var10.xlsx
@@ -466,118 +466,118 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>ASML</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0004710736249300006</v>
+        <v>0.001046814563293233</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003049393018863124</v>
+        <v>0.0002793053719548725</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004723136650604035</v>
+        <v>0.002288414088021248</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007794481906094764</v>
+        <v>0.0003758880376423061</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>MRVL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0005862770843313721</v>
+        <v>0.001894873530529465</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001757822096802716</v>
+        <v>0.000514546936844866</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>FANG</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002288414088021248</v>
+        <v>0.001690814678876192</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003758880376423061</v>
+        <v>0.0006042654669548398</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>CPRT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0006499835544643284</v>
+        <v>0.001537434689359692</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003507270993650239</v>
+        <v>0.000184575384017428</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>CHTR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001566700094702903</v>
+        <v>0.001926466567988601</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003104625081012702</v>
+        <v>0.000344220960380733</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>ODFL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000387980598319661</v>
+        <v>0.001530851686953008</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002042996436444955</v>
+        <v>0.0002843655950373925</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>IDXX</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001894873530529465</v>
+        <v>0.001992471354671958</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000514546936844866</v>
+        <v>0.0002545243446573122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>TTWO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.001001692979017388</v>
+        <v>0.001459654289844646</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002214381520231295</v>
+        <v>0.0003452783591290246</v>
       </c>
     </row>
   </sheetData>
